--- a/biology/Histoire de la zoologie et de la botanique/Albert_Deflers/Albert_Deflers.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Albert_Deflers/Albert_Deflers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Albert Deflers, né à Doullens le 16 novembre 1844 et mort à Nancy le 4 octobre 1921[1], est un botaniste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albert Deflers, né à Doullens le 16 novembre 1844 et mort à Nancy le 4 octobre 1921, est un botaniste français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu d'une famille de magistrats, il fait ses études à l’École forestière et devient ingénieur des Eaux et Forêts. En 1880, il se fait mettre en disponibilité pour pouvoir s'occuper de sa passion, la botanique.
 Dès 1881, il parcourt l'Égypte et commence un catalogue des plantes de la vallée du Nil. Il voyage ensuite à Obock et obtient en 1887 une mission du ministère de l'Instruction publique pour explorer le Yémen. Parti de Suez le 11 mars 1887 avec un domestique égyptien, il débute ses herborisations à Djedda. Il visite ensuite Souakin, Massaoua et al-Hodeïda puis gagne Badschil et étudie la flore des hautes montagnes du Haraz et du djebel Schibam. Il atteint Mankhar puis entre à Sanaa le 19 mai. Il visite ensuite Shibam, Kaukaban et Amran mais, malade, quitte Sana le 29 juillet. Il se dirihe alors vers le sud, s'arrête à Dhamar puis Yerim, Ibb et Taïs avant d'atteindre Zebid d'où il revient à Hodeida par Beit-el-Fakih. En caboteur, il rejoint Aden puis en paquebot, Suez (septembre 1887).
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Herborisations dans les montagnes volcaniques d'Aden », dans Bulletin de la Société botanique de France, vol. 32, 1885, p. 343
 Voyage au Yémen : journal d'une excursion botanique faite en 1887 dans les montagnes de l'Arabie Heureuse, 1889
